--- a/biology/Écologie/Classification_écologique_des_terres/Classification_écologique_des_terres.xlsx
+++ b/biology/Écologie/Classification_écologique_des_terres/Classification_écologique_des_terres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_%C3%A9cologique_des_terres</t>
+          <t>Classification_écologique_des_terres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification écologique des terres (ecological land classification en anglais) est définie comme étant un outil de management permettant de délimiter et de classer des aires écologiques distinctes en fonction de leur géologie, de leur relief, de leurs sols, de leur végétation, de leurs conditions climatiques, de leurs espèces sauvages, de leurs ressources en eau et de leur anthropisation.
 De nombreuses tentatives de classification ont déjà été proposées, en particulier dans le cadre de la mise en place de systèmes de conservation. Une partie de la liste proposée ci-dessous est inspirée du système de zonage par écozone proposé par Miklos Udvardy dans le cadre du Programme sur l'homme et la biosphère, publié en 1975 et mis à jour en 1982.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classification_%C3%A9cologique_des_terres</t>
+          <t>Classification_écologique_des_terres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Classification des unités écologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un concept crucial en matière de classification des terres, est que chacune des régions définies le reste pendant un certain temps, ou du moins, montre une évolution limitée et graduelle plutôt qu'importante et brutale. Cela signifie que le système est dans une sorte d'équilibre, relevant de processus d'homéostasie. La gestion des territoires cherche à établir une situation assez stable, ce qui évoque soit la conservation pure ou tout du moins la durabilité.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Classification_%C3%A9cologique_des_terres</t>
+          <t>Classification_écologique_des_terres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
